--- a/test/files/print.xlsx
+++ b/test/files/print.xlsx
@@ -63848,7 +63848,7 @@
   </sheetData>
   <autoFilter ref="A1:E12"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" scale="50"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="90" man="1"/>

--- a/test/files/print.xlsx
+++ b/test/files/print.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>

--- a/test/files/print.xlsx
+++ b/test/files/print.xlsx
@@ -63851,21 +63851,21 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" scale="50"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="90" man="1"/>
-    <brk id="180" man="1"/>
-    <brk id="270" man="1"/>
+    <brk id="90" man="1" max="1048575"/>
+    <brk id="180" man="1" max="1048575"/>
+    <brk id="270" man="1" max="1048575"/>
   </rowBreaks>
   <colBreaks count="10" manualBreakCount="10">
-    <brk id="15" man="1"/>
-    <brk id="30" man="1"/>
-    <brk id="45" man="1"/>
-    <brk id="60" man="1"/>
-    <brk id="75" man="1"/>
-    <brk id="90" man="1"/>
-    <brk id="105" man="1"/>
-    <brk id="120" man="1"/>
-    <brk id="135" man="1"/>
-    <brk id="150" man="1"/>
+    <brk id="15" man="1" max="1048575"/>
+    <brk id="30" man="1" max="1048575"/>
+    <brk id="45" man="1" max="1048575"/>
+    <brk id="60" man="1" max="1048575"/>
+    <brk id="75" man="1" max="1048575"/>
+    <brk id="90" man="1" max="1048575"/>
+    <brk id="105" man="1" max="1048575"/>
+    <brk id="120" man="1" max="1048575"/>
+    <brk id="135" man="1" max="1048575"/>
+    <brk id="150" man="1" max="1048575"/>
   </colBreaks>
 </worksheet>
 </file>